--- a/HVAC_MRA/Ведомость немоделируемых элементов.xlsx
+++ b/HVAC_MRA/Ведомость немоделируемых элементов.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mankaev_r\Desktop\HVAC\HVAC_MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D24495-5FD9-4F60-B004-64D319B9E61D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77F23A8-33CF-4EDE-A78E-F296CCF90E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC17C0A9-4408-4C58-B921-A9219232C9E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>ADSK_Имя системы</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Т3</t>
-  </si>
-  <si>
-    <t>Тест</t>
   </si>
   <si>
     <t>ЗАПОЛНЯТЬ ТАБЛИЦУ ТРЕБУЕТСЯ БЕЗ ПРОПУСКОВ СТРОК, КАК ТОЛЬКО БУДЕТ НАЙДЕН ЭЛЕМЕНТ БЕЗ НАИМЕНОВАНИЯ, ТАБЛИЦА БУДЕТ СЧИТАТЬСЯ ОКОНЧЕННОЙ.
@@ -546,7 +543,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -789,34 +786,30 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
         <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
         <v>211</v>
       </c>
     </row>
